--- a/output/fit_clients/fit_round_495.xlsx
+++ b/output/fit_clients/fit_round_495.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2063374853.786675</v>
+        <v>1796220889.510241</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1041287462587893</v>
+        <v>0.07755355617960989</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03604641419786103</v>
+        <v>0.04137557481817378</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1031687431.118931</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2219791383.053668</v>
+        <v>2385720618.552615</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1445676859446703</v>
+        <v>0.1561439655334593</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04304951532350602</v>
+        <v>0.04025014743121893</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1109895765.647395</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5157632052.400042</v>
+        <v>5171720671.333099</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1497413186010774</v>
+        <v>0.1315210251109913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03837922918221024</v>
+        <v>0.02644430267584745</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>179</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2578816122.403299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2881097854.251382</v>
+        <v>3042810121.680275</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07127205123578176</v>
+        <v>0.08832950614778851</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04352480913430366</v>
+        <v>0.04110928844507071</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>184</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1440549004.89817</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2616405090.181493</v>
+        <v>2062110618.005952</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1155016985381326</v>
+        <v>0.1420069912604842</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04111590332178491</v>
+        <v>0.03922421610658717</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>94</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1308202507.998537</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1899984712.42211</v>
+        <v>2622764810.871183</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08042200908397197</v>
+        <v>0.06294973134129105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03302613244529099</v>
+        <v>0.03018621636085406</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>156</v>
-      </c>
-      <c r="J7" t="n">
-        <v>949992427.0739144</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2622791117.981482</v>
+        <v>2516167539.693975</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1937733783493196</v>
+        <v>0.1951264752680826</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02314486756466063</v>
+        <v>0.02500524043620994</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>158</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1311395577.967041</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1807916940.968904</v>
+        <v>1903616024.012057</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1346866410123457</v>
+        <v>0.1356487723763178</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0290187282511669</v>
+        <v>0.02414450671252915</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>903958523.7686455</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5477702682.639966</v>
+        <v>3857734281.720801</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1590940811826954</v>
+        <v>0.2126276385413976</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03518199467948423</v>
+        <v>0.03575348632745404</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>208</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2738851477.645992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2726765879.138365</v>
+        <v>3231849283.539972</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1401527411591032</v>
+        <v>0.1620980202161242</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0308559956762413</v>
+        <v>0.04355675605497687</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>204</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1363382863.469224</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2682168676.594154</v>
+        <v>2183011008.846739</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1504327098258084</v>
+        <v>0.1345990852225961</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05032961793345259</v>
+        <v>0.03841412952849879</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>168</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1341084327.237441</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4592149812.339294</v>
+        <v>4077759887.489376</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08369060269493502</v>
+        <v>0.08610776236758862</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02324576336886749</v>
+        <v>0.02992490155650208</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>166</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2296074931.045612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3137661634.799995</v>
+        <v>2455221393.189914</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1484391058192739</v>
+        <v>0.1185328806113873</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03822331329884983</v>
+        <v>0.03024830518324066</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>160</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1568830841.893873</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1769927385.069262</v>
+        <v>1338364991.428834</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08726692900345058</v>
+        <v>0.08281710567875324</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03847417359539622</v>
+        <v>0.03780848617492084</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>884963839.2545879</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2738589411.390807</v>
+        <v>2126105994.478868</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1057478952096808</v>
+        <v>0.09707534879469831</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03164274964812543</v>
+        <v>0.03919430692342048</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>101</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1369294715.222979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4823023404.612538</v>
+        <v>4753605926.719912</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1628400173798557</v>
+        <v>0.1096237325188421</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0358021759144685</v>
+        <v>0.039652032600974</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>149</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2411511696.241381</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2585103902.210801</v>
+        <v>2746609329.24475</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1459274717146957</v>
+        <v>0.1792775997839846</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02563092085942495</v>
+        <v>0.03311256687772862</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>163</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1292552011.431795</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>837137954.9535034</v>
+        <v>1178504784.320405</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1861607370680624</v>
+        <v>0.1288617468272387</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02542580405946625</v>
+        <v>0.02305805917775831</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>418568967.1344917</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1910622394.749368</v>
+        <v>2460680496.528374</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1530542004393093</v>
+        <v>0.1111199308971904</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02152242653442994</v>
+        <v>0.02707609336996545</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>69</v>
-      </c>
-      <c r="J20" t="n">
-        <v>955311233.2694453</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2450770384.70706</v>
+        <v>1652483290.423942</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06791301776012439</v>
+        <v>0.07291522307282745</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02797456735423458</v>
+        <v>0.0348121868576371</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>37</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1225385185.210621</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3963232273.029611</v>
+        <v>2771039420.117352</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1261524360994152</v>
+        <v>0.121646536478267</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04550973104072806</v>
+        <v>0.05708069980516936</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1981616140.38682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1317915514.937627</v>
+        <v>1172970750.050643</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1463834254544849</v>
+        <v>0.1710311235418353</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03766035621062308</v>
+        <v>0.03577717210538501</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>658957774.100163</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3901959193.188567</v>
+        <v>2632366208.729813</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09091302793044483</v>
+        <v>0.0986388002067526</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02811750539252132</v>
+        <v>0.03572952761452994</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>145</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1950979571.201959</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1223861169.715953</v>
+        <v>1309159151.061174</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09987347924465453</v>
+        <v>0.08714092158306133</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02929877310598991</v>
+        <v>0.02964128125248873</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>611930597.3562669</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1088943629.377534</v>
+        <v>997967246.6750541</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08283704770116952</v>
+        <v>0.1084988144117376</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03396684314281702</v>
+        <v>0.03456966634360053</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>544471808.5489596</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4187629599.702922</v>
+        <v>4277808726.804764</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09509118900957959</v>
+        <v>0.1333635071359659</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01752577396358291</v>
+        <v>0.02535834219256322</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2093814800.695326</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2868790625.410317</v>
+        <v>3720700419.961486</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1037451798528667</v>
+        <v>0.1318851525491511</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03416990017929774</v>
+        <v>0.03534561655921203</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>160</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1434395312.56514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4438650064.811969</v>
+        <v>4451400869.657901</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1123844403721162</v>
+        <v>0.1395351922697449</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03833204491250192</v>
+        <v>0.03661584704730659</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>219</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2219325018.886742</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2136399695.369602</v>
+        <v>2314998289.329377</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1226695697407105</v>
+        <v>0.1116914348572586</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03543586290073653</v>
+        <v>0.02888340678679229</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1068199900.702722</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1399928326.357729</v>
+        <v>1464530860.859769</v>
       </c>
       <c r="F31" t="n">
-        <v>0.103237321790881</v>
+        <v>0.104392095304038</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04509104148786428</v>
+        <v>0.0378456258710996</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>699964067.6101121</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1597190393.306428</v>
+        <v>1626431175.913584</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08502608327997938</v>
+        <v>0.1145403206823672</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0266228501519182</v>
+        <v>0.02917870095926363</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>798595285.1623513</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2753253701.934756</v>
+        <v>2397194621.095963</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1305664600224851</v>
+        <v>0.2081879085671767</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04323972045034084</v>
+        <v>0.04449974398188996</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>152</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1376626867.623319</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1270153607.564107</v>
+        <v>1168534188.880761</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1041359006322578</v>
+        <v>0.1136728359006002</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01816570296189128</v>
+        <v>0.02445990948790339</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>635076797.3368871</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1226447138.577305</v>
+        <v>1184660919.669865</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1018359974174191</v>
+        <v>0.0965081541567806</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02878851176536428</v>
+        <v>0.03321650595242024</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>613223538.2331635</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3088505575.314938</v>
+        <v>3039322976.591151</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1299630517980155</v>
+        <v>0.1278191232036025</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02628418690165574</v>
+        <v>0.02447074048413604</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>124</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1544252762.516706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2821814805.009442</v>
+        <v>2288154213.313356</v>
       </c>
       <c r="F37" t="n">
-        <v>0.069510484746964</v>
+        <v>0.09775760914638409</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03462530291527537</v>
+        <v>0.03847342606254948</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>134</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1410907542.888598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2071992793.730807</v>
+        <v>2001391617.471968</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1060740948999554</v>
+        <v>0.07513568155867906</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03601384778296266</v>
+        <v>0.03019110819106356</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1035996365.343897</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2176863161.131853</v>
+        <v>2163520135.522983</v>
       </c>
       <c r="F39" t="n">
-        <v>0.180268193821818</v>
+        <v>0.1189842608620018</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02442883090093791</v>
+        <v>0.03288734257488919</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1088431548.314262</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1761495629.070505</v>
+        <v>1103128808.572427</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1411132878211262</v>
+        <v>0.1002236643274294</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04390195667993913</v>
+        <v>0.05451124855163633</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>880747715.2936881</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2237806744.722085</v>
+        <v>2135719256.453071</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1088300566942223</v>
+        <v>0.1411291602815967</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0308368047408844</v>
+        <v>0.03550301937742271</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>120</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1118903423.376978</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2696455094.401944</v>
+        <v>3865498562.75381</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1004532774009068</v>
+        <v>0.1028223874754044</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04151559477745848</v>
+        <v>0.02824928037153434</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>163</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1348227486.759065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2809217007.411827</v>
+        <v>2158256546.478861</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1909199503983009</v>
+        <v>0.1294384526231165</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02320735599363997</v>
+        <v>0.02401487627524812</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>170</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1404608521.29416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1989852884.975503</v>
+        <v>1489496906.942665</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06486136575179913</v>
+        <v>0.09648328524679922</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02758557091940758</v>
+        <v>0.0251985845817518</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>994926546.8226657</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1811158900.463916</v>
+        <v>2154935479.572153</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1497577947219252</v>
+        <v>0.1618992153979292</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04054283983372497</v>
+        <v>0.05528639332298916</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>905579422.0643938</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3575723264.235928</v>
+        <v>3983696038.914938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1302864022187371</v>
+        <v>0.1127914265825682</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04013840177244741</v>
+        <v>0.0422838845961189</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>176</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1787861577.377232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3575382303.099164</v>
+        <v>3307049319.352784</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1708413279064496</v>
+        <v>0.1390776765104267</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05709922117670201</v>
+        <v>0.03877340135685459</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>136</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1787691126.638232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3753976664.272619</v>
+        <v>3589464084.911057</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07087837751783052</v>
+        <v>0.07951866200895141</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02382426308532147</v>
+        <v>0.02517258648374818</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>161</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1876988380.860382</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1881656560.794082</v>
+        <v>1753481124.97184</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1910182603245526</v>
+        <v>0.1419932630923184</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04152631010128287</v>
+        <v>0.03935834592460677</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>940828253.0994933</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2891059792.625555</v>
+        <v>3654617518.100803</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1450433214764158</v>
+        <v>0.1089202408596552</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03649714879157091</v>
+        <v>0.04773734612184562</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>169</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1445529963.936214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>961894688.5841948</v>
+        <v>1272359656.799036</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1777393030861941</v>
+        <v>0.1275869847028743</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03653627942552385</v>
+        <v>0.03361658612665508</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>480947434.4612033</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5213787753.671971</v>
+        <v>4877338893.970762</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1335526182950639</v>
+        <v>0.1118080963303344</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04230530468199496</v>
+        <v>0.04573279765993941</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>204</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2606893861.908744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3114364288.079443</v>
+        <v>3675138485.0059</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1789922276842817</v>
+        <v>0.1773982208799463</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02279959633599037</v>
+        <v>0.02723075122004779</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>143</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1557182168.567893</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4375118093.99509</v>
+        <v>3287627752.536893</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1546606660346894</v>
+        <v>0.1698790215396273</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03401494577657587</v>
+        <v>0.04804728152592171</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>162</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2187559140.549739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3675646416.763821</v>
+        <v>3697598002.480068</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1978137521154659</v>
+        <v>0.1957996007729573</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02237880881960479</v>
+        <v>0.02982453310788991</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1837823169.02851</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1644324795.714568</v>
+        <v>1581325821.847641</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1495357132196768</v>
+        <v>0.1410315816757463</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04583597125977609</v>
+        <v>0.057660803416714</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>822162418.72729</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2821145611.195933</v>
+        <v>2777469490.322349</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1393592661371155</v>
+        <v>0.1661637195453863</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01878828987716599</v>
+        <v>0.0239865593380448</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>157</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1410572795.011072</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1582528748.296424</v>
+        <v>1522873571.562527</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1539328205501111</v>
+        <v>0.1456141283695633</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03265371835544308</v>
+        <v>0.02581478323633001</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>791264397.7720255</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5233783436.227345</v>
+        <v>4431037236.20492</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09160894821401878</v>
+        <v>0.1267114133678242</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04532186051709428</v>
+        <v>0.04889724134543838</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2616891634.581616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3568258351.8884</v>
+        <v>2488577449.919886</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1614821070014305</v>
+        <v>0.1253037329726935</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03248596714493773</v>
+        <v>0.02408947190797269</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>156</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1784129305.92559</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2359360505.276807</v>
+        <v>3120754449.89884</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1164981203872676</v>
+        <v>0.1711475090328596</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02860078809796109</v>
+        <v>0.02889162422278243</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>171</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1179680293.544554</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1688501485.591866</v>
+        <v>1672095094.555475</v>
       </c>
       <c r="F62" t="n">
-        <v>0.133215816109601</v>
+        <v>0.1765727417056608</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03376115952276733</v>
+        <v>0.03348506838658598</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>844250754.1741546</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4475992890.620923</v>
+        <v>5311031503.701079</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1055326212956104</v>
+        <v>0.07068668710883945</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04147135054740336</v>
+        <v>0.0437833826263833</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>142</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2237996486.466425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5248590030.91752</v>
+        <v>4288494914.079294</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1770197668903396</v>
+        <v>0.1171382217463278</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0243062113346385</v>
+        <v>0.03148715569527941</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>154</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2624295139.171326</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5257234783.583613</v>
+        <v>5039590882.036062</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1672358899627608</v>
+        <v>0.1366627607282411</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03143762593796728</v>
+        <v>0.03088822976393556</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>178</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2628617335.364343</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5433312558.676394</v>
+        <v>5438608941.68686</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1356503752209247</v>
+        <v>0.1377639355926196</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0368206975448522</v>
+        <v>0.04878877539498252</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>147</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2716656329.734869</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2317760499.302488</v>
+        <v>2790120474.263693</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07123984816074364</v>
+        <v>0.08819426778206201</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04235504878594617</v>
+        <v>0.04702507815531799</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>159</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1158880325.723854</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5058265161.90115</v>
+        <v>3709446934.110153</v>
       </c>
       <c r="F68" t="n">
-        <v>0.111230878877817</v>
+        <v>0.1391908350347852</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03634569211779816</v>
+        <v>0.05108906907444935</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>159</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2529132640.889238</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1762628421.669405</v>
+        <v>1784584597.550323</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1126038096476102</v>
+        <v>0.1279830363893014</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04990602911805783</v>
+        <v>0.05953999883884664</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>881314185.1088479</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3343988903.725331</v>
+        <v>3290363969.864586</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08945548347044559</v>
+        <v>0.06827586437036645</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04365556849205037</v>
+        <v>0.04725376884042212</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>142</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1671994451.271346</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5302399419.506521</v>
+        <v>5626565685.515306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1510691655380502</v>
+        <v>0.115494549533892</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02342046906850802</v>
+        <v>0.02401916330470068</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>180</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2651199838.061494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1667885020.45899</v>
+        <v>1847601072.870902</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09364868381898614</v>
+        <v>0.09997206739118555</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04416219125722871</v>
+        <v>0.04724962092812615</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>833942510.1577941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3144174819.023742</v>
+        <v>2837077259.951951</v>
       </c>
       <c r="F73" t="n">
-        <v>0.112023124550363</v>
+        <v>0.07112409386529189</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03566730868980148</v>
+        <v>0.04726899149788547</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>187</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1572087392.307474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3344790003.214236</v>
+        <v>3956448382.558722</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1443016511589813</v>
+        <v>0.164173093103105</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02920041936650926</v>
+        <v>0.02813628880573933</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>169</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1672395037.18661</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2361445298.096739</v>
+        <v>1994120778.77206</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1225509295882943</v>
+        <v>0.1118575544371693</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02835131423840614</v>
+        <v>0.03453810617804851</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1180722579.343781</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5334092507.277312</v>
+        <v>4684366521.146483</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1208900718432833</v>
+        <v>0.09499593229315249</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02169296052551328</v>
+        <v>0.02104710821426518</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2667046294.294296</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1892113475.692772</v>
+        <v>1641865365.115554</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1358502500486977</v>
+        <v>0.122864782521569</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03087113084159517</v>
+        <v>0.02642727004497404</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>946056783.4264168</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4608326212.81485</v>
+        <v>3682025730.020882</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1294274288369257</v>
+        <v>0.1050308649461732</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04079729805946013</v>
+        <v>0.04377196843729154</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>172</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2304163028.606699</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1677946611.575627</v>
+        <v>1401459155.633421</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1296802301050172</v>
+        <v>0.1139971329719914</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03073342099428196</v>
+        <v>0.03016580717417509</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>838973371.1553171</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4206377903.437799</v>
+        <v>4298362264.024406</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08280972570039025</v>
+        <v>0.07868825105804976</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03192389313677449</v>
+        <v>0.03006903077503149</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2103188961.465039</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4373743339.182064</v>
+        <v>3420993355.798161</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1232983330786844</v>
+        <v>0.1338071027758378</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02322813069077109</v>
+        <v>0.03066598021915716</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2186871646.706963</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4780596174.275604</v>
+        <v>3618955614.315821</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2032726814935309</v>
+        <v>0.1778197897775163</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02887232632347867</v>
+        <v>0.01896212456645998</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>173</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2390298083.339651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2078088155.79072</v>
+        <v>2112765698.050065</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1186367457073884</v>
+        <v>0.1472762304156888</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03624733094417121</v>
+        <v>0.03366245024186313</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1039044072.950158</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2542251280.41654</v>
+        <v>2488568222.478732</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09695116959696877</v>
+        <v>0.08743282811332688</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0336253849693928</v>
+        <v>0.05039378269423603</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1271125565.814076</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3208695199.859214</v>
+        <v>3673227712.471771</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1816421919483875</v>
+        <v>0.1377764817414055</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05641064239850301</v>
+        <v>0.03656770645096282</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>185</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1604347683.122922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2246582194.267625</v>
+        <v>2328823048.264665</v>
       </c>
       <c r="F86" t="n">
-        <v>0.110411800107656</v>
+        <v>0.1681722617833818</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01830343147252047</v>
+        <v>0.01923732531069344</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>61</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1123291159.079657</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1394871424.324935</v>
+        <v>1112082630.831527</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1732256040596721</v>
+        <v>0.143292885985195</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04155503662376651</v>
+        <v>0.03121685188748555</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>697435817.7049065</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3123444474.941073</v>
+        <v>3688743338.669172</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1403046813586739</v>
+        <v>0.1617661440555003</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02594504610935921</v>
+        <v>0.03726828248183584</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>196</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1561722280.134748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3231077529.7442</v>
+        <v>3325304271.014621</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1545617553849085</v>
+        <v>0.1425455993776243</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03891077890240886</v>
+        <v>0.03314061938884805</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>168</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1615538786.066325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1549090377.099986</v>
+        <v>1365274223.229841</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09057197132825036</v>
+        <v>0.1009255071575351</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04411854962592393</v>
+        <v>0.03538416232548004</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>774545176.3212951</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1964855953.074143</v>
+        <v>2049543474.51509</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1282603007196921</v>
+        <v>0.1735223730250444</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03876718700818682</v>
+        <v>0.04183403249743472</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>982427953.5141003</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2500779457.912562</v>
+        <v>2314136677.227711</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06660517672640366</v>
+        <v>0.09062985271963443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04615862188354655</v>
+        <v>0.03208915718531115</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>135</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1250389713.035995</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4527551939.067102</v>
+        <v>3415396281.529501</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09098599377590014</v>
+        <v>0.1423772903940609</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05172787648324648</v>
+        <v>0.04392502759834517</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>150</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2263775936.06937</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2305818728.452115</v>
+        <v>2264344549.208244</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1198240915114636</v>
+        <v>0.1367744903832328</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04078275660438441</v>
+        <v>0.03416259075750226</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1152909402.462628</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3041702139.803102</v>
+        <v>3039172711.958328</v>
       </c>
       <c r="F95" t="n">
-        <v>0.136387132411823</v>
+        <v>0.1234761611901434</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04067097331113279</v>
+        <v>0.04471071518872988</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>120</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1520851066.655151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2336568460.028421</v>
+        <v>2033332977.059511</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1332224273509371</v>
+        <v>0.1235692392866301</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0395444835063358</v>
+        <v>0.03912563143900613</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1168284181.076346</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5121726385.345735</v>
+        <v>4725069343.040191</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1485066108428571</v>
+        <v>0.1404011773813127</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02662381561949455</v>
+        <v>0.02576750287717526</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>158</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2560863339.277701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2729488239.40524</v>
+        <v>2721540636.502662</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1298148941040896</v>
+        <v>0.09572629540194603</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03029959375427947</v>
+        <v>0.02744995323138033</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>137</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1364744086.059932</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2345546352.692716</v>
+        <v>3027589604.47862</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1466041802784306</v>
+        <v>0.1170519872037534</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02240510335458579</v>
+        <v>0.02336631261034998</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1172773114.876165</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4291209551.789124</v>
+        <v>4634377303.402689</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1402563710357611</v>
+        <v>0.1399264110382474</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02813500162179399</v>
+        <v>0.01709247283361832</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>151</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2145604869.845527</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2483107837.244289</v>
+        <v>3101388887.995359</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1891722327905901</v>
+        <v>0.1488019399300812</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03998305157598826</v>
+        <v>0.05690558042774074</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>200</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1241553939.37941</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_495.xlsx
+++ b/output/fit_clients/fit_round_495.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1796220889.510241</v>
+        <v>1542043606.763028</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07755355617960989</v>
+        <v>0.08691305497775088</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04137557481817378</v>
+        <v>0.04259516850050984</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2385720618.552615</v>
+        <v>2118441743.521307</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1561439655334593</v>
+        <v>0.1314875049985492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04025014743121893</v>
+        <v>0.04434325309893267</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5171720671.333099</v>
+        <v>4116628558.546154</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1315210251109913</v>
+        <v>0.1421778342493282</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02644430267584745</v>
+        <v>0.02661923714899324</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3042810121.680275</v>
+        <v>2965624030.892049</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08832950614778851</v>
+        <v>0.1052085774819358</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04110928844507071</v>
+        <v>0.03999683222159129</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2062110618.005952</v>
+        <v>2454301432.52681</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1420069912604842</v>
+        <v>0.1430188992602597</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03922421610658717</v>
+        <v>0.05012585027223057</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2622764810.871183</v>
+        <v>2758783355.983537</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06294973134129105</v>
+        <v>0.09828462862929746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03018621636085406</v>
+        <v>0.0355352812375033</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2516167539.693975</v>
+        <v>3005572827.986859</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1951264752680826</v>
+        <v>0.1732338569595132</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02500524043620994</v>
+        <v>0.02095527784504744</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1903616024.012057</v>
+        <v>1857216406.864154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1356487723763178</v>
+        <v>0.1900970894828291</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02414450671252915</v>
+        <v>0.02909716233843924</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3857734281.720801</v>
+        <v>5951702170.922746</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2126276385413976</v>
+        <v>0.1944160741530768</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03575348632745404</v>
+        <v>0.04651403127205009</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3231849283.539972</v>
+        <v>3022619625.686199</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1620980202161242</v>
+        <v>0.1369367456663154</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04355675605497687</v>
+        <v>0.0376719614476592</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2183011008.846739</v>
+        <v>2124753716.583473</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1345990852225961</v>
+        <v>0.1372463194084861</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03841412952849879</v>
+        <v>0.05382455858738443</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4077759887.489376</v>
+        <v>4982608231.90546</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08610776236758862</v>
+        <v>0.07421322998332749</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02992490155650208</v>
+        <v>0.02775958665571343</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2455221393.189914</v>
+        <v>3702851738.714928</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1185328806113873</v>
+        <v>0.1790473384586783</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03024830518324066</v>
+        <v>0.03478869713763893</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1338364991.428834</v>
+        <v>1576951053.004454</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08281710567875324</v>
+        <v>0.1064375170012176</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03780848617492084</v>
+        <v>0.03642270323427008</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2126105994.478868</v>
+        <v>1840071512.739509</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09707534879469831</v>
+        <v>0.104027497386758</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03919430692342048</v>
+        <v>0.04482578857172564</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4753605926.719912</v>
+        <v>4367590673.017049</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1096237325188421</v>
+        <v>0.1567751520462358</v>
       </c>
       <c r="G17" t="n">
-        <v>0.039652032600974</v>
+        <v>0.04928355484158997</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2746609329.24475</v>
+        <v>3442346210.331971</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1792775997839846</v>
+        <v>0.1583259343383136</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03311256687772862</v>
+        <v>0.02280298337689408</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1178504784.320405</v>
+        <v>1178054098.876896</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1288617468272387</v>
+        <v>0.1262185552794938</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02305805917775831</v>
+        <v>0.01664240065780937</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2460680496.528374</v>
+        <v>2286983046.711246</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1111199308971904</v>
+        <v>0.1102747021812146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02707609336996545</v>
+        <v>0.02435630004794391</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1652483290.423942</v>
+        <v>1833320977.756066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07291522307282745</v>
+        <v>0.08141554588308825</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0348121868576371</v>
+        <v>0.04533496088455626</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2771039420.117352</v>
+        <v>2751782953.786939</v>
       </c>
       <c r="F22" t="n">
-        <v>0.121646536478267</v>
+        <v>0.1133993908155975</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05708069980516936</v>
+        <v>0.05281299432722526</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1172970750.050643</v>
+        <v>1234070729.589547</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1710311235418353</v>
+        <v>0.1519165695453046</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03577717210538501</v>
+        <v>0.05461180489712595</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2632366208.729813</v>
+        <v>3080302104.363536</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0986388002067526</v>
+        <v>0.09723413237333359</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03572952761452994</v>
+        <v>0.03422946390554686</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1309159151.061174</v>
+        <v>1172165072.669854</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08714092158306133</v>
+        <v>0.1144250621730645</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02964128125248873</v>
+        <v>0.02294466727950694</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>997967246.6750541</v>
+        <v>925213717.1914921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1084988144117376</v>
+        <v>0.1088359660635458</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03456966634360053</v>
+        <v>0.03650172679094803</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4277808726.804764</v>
+        <v>2871351256.889565</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1333635071359659</v>
+        <v>0.1160057169728253</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02535834219256322</v>
+        <v>0.02411193006629987</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3720700419.961486</v>
+        <v>2522327825.795138</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1318851525491511</v>
+        <v>0.1145175816686133</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03534561655921203</v>
+        <v>0.0423067970835642</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4451400869.657901</v>
+        <v>4361163652.675226</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1395351922697449</v>
+        <v>0.09900351689248321</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03661584704730659</v>
+        <v>0.03644461374826462</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2314998289.329377</v>
+        <v>2226557566.903035</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1116914348572586</v>
+        <v>0.1115358581876746</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02888340678679229</v>
+        <v>0.03979725852030268</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1464530860.859769</v>
+        <v>1479112224.762859</v>
       </c>
       <c r="F31" t="n">
-        <v>0.104392095304038</v>
+        <v>0.09468630747832478</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0378456258710996</v>
+        <v>0.04559338703330265</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1626431175.913584</v>
+        <v>1625500771.75043</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1145403206823672</v>
+        <v>0.08042942310930996</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02917870095926363</v>
+        <v>0.03063679184121253</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2397194621.095963</v>
+        <v>2055730346.56514</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2081879085671767</v>
+        <v>0.2080645635752057</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04449974398188996</v>
+        <v>0.04099208241181748</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1168534188.880761</v>
+        <v>1469742302.269227</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1136728359006002</v>
+        <v>0.107979497278071</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02445990948790339</v>
+        <v>0.02542052161599924</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1184660919.669865</v>
+        <v>1069780201.671392</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0965081541567806</v>
+        <v>0.1084904839341741</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03321650595242024</v>
+        <v>0.03324240991845751</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3039322976.591151</v>
+        <v>2884034729.564976</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1278191232036025</v>
+        <v>0.15736374366362</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02447074048413604</v>
+        <v>0.02239992622696247</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2288154213.313356</v>
+        <v>2253070428.040962</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09775760914638409</v>
+        <v>0.06850263139155306</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03847342606254948</v>
+        <v>0.03541481537475698</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2001391617.471968</v>
+        <v>1628911388.556081</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07513568155867906</v>
+        <v>0.1137369251578772</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03019110819106356</v>
+        <v>0.03550985051346197</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2163520135.522983</v>
+        <v>1989775314.448007</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1189842608620018</v>
+        <v>0.153944230873414</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03288734257488919</v>
+        <v>0.02817847076944229</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1103128808.572427</v>
+        <v>1100646358.813126</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1002236643274294</v>
+        <v>0.1403848154161137</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05451124855163633</v>
+        <v>0.04389475081682771</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2135719256.453071</v>
+        <v>1998501571.324479</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1411291602815967</v>
+        <v>0.1018554223622221</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03550301937742271</v>
+        <v>0.04085997352728815</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3865498562.75381</v>
+        <v>3511930735.259176</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1028223874754044</v>
+        <v>0.08307695444994855</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02824928037153434</v>
+        <v>0.03426722571480028</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2158256546.478861</v>
+        <v>1951346407.945301</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1294384526231165</v>
+        <v>0.1248997774152531</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02401487627524812</v>
+        <v>0.02264717301501858</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1489496906.942665</v>
+        <v>2033576958.615717</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09648328524679922</v>
+        <v>0.06552829710263881</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0251985845817518</v>
+        <v>0.02533808173890488</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2154935479.572153</v>
+        <v>2032833618.314464</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1618992153979292</v>
+        <v>0.1778106360778654</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05528639332298916</v>
+        <v>0.04839139191100247</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3983696038.914938</v>
+        <v>4076355320.586821</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1127914265825682</v>
+        <v>0.1246334127716951</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0422838845961189</v>
+        <v>0.04098794590128187</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3307049319.352784</v>
+        <v>3688304585.950544</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1390776765104267</v>
+        <v>0.1853979240434641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03877340135685459</v>
+        <v>0.05229049533003223</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3589464084.911057</v>
+        <v>3959547642.702285</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07951866200895141</v>
+        <v>0.06645650256107491</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02517258648374818</v>
+        <v>0.03781756070299859</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1753481124.97184</v>
+        <v>1626951562.905364</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1419932630923184</v>
+        <v>0.1805698835298321</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03935834592460677</v>
+        <v>0.03157214547828609</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3654617518.100803</v>
+        <v>3268349027.00213</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1089202408596552</v>
+        <v>0.1242665341805756</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04773734612184562</v>
+        <v>0.03342176516628356</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1272359656.799036</v>
+        <v>1218397440.643993</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1275869847028743</v>
+        <v>0.1251807619854659</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03361658612665508</v>
+        <v>0.04152699153210296</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4877338893.970762</v>
+        <v>5302353685.76004</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1118080963303344</v>
+        <v>0.09202204551640496</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04573279765993941</v>
+        <v>0.04931698934547308</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3675138485.0059</v>
+        <v>2415237853.607495</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1773982208799463</v>
+        <v>0.1987121036925598</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02723075122004779</v>
+        <v>0.03511639382023498</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3287627752.536893</v>
+        <v>4299824685.789639</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1698790215396273</v>
+        <v>0.1099273530514423</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04804728152592171</v>
+        <v>0.04717050827903278</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3697598002.480068</v>
+        <v>3609512129.03524</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1957996007729573</v>
+        <v>0.1593927273572834</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02982453310788991</v>
+        <v>0.03111944576805847</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1581325821.847641</v>
+        <v>1537253675.654204</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1410315816757463</v>
+        <v>0.1083699967193964</v>
       </c>
       <c r="G56" t="n">
-        <v>0.057660803416714</v>
+        <v>0.04867600226160111</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2777469490.322349</v>
+        <v>3877374976.710955</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1661637195453863</v>
+        <v>0.1656990784929531</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0239865593380448</v>
+        <v>0.0263541723637696</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1522873571.562527</v>
+        <v>1234905194.877186</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1456141283695633</v>
+        <v>0.1931185228919123</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02581478323633001</v>
+        <v>0.02830663312866903</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4431037236.20492</v>
+        <v>4639772445.804938</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1267114133678242</v>
+        <v>0.1228333820466094</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04889724134543838</v>
+        <v>0.04361523446045926</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2488577449.919886</v>
+        <v>2923492167.640656</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1253037329726935</v>
+        <v>0.1874142293677726</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02408947190797269</v>
+        <v>0.03314755083076849</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3120754449.89884</v>
+        <v>2990889245.512687</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1711475090328596</v>
+        <v>0.1278023368666182</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02889162422278243</v>
+        <v>0.02776770915105524</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1672095094.555475</v>
+        <v>1667952664.592275</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1765727417056608</v>
+        <v>0.1459052061890579</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03348506838658598</v>
+        <v>0.03256544037669383</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5311031503.701079</v>
+        <v>4947190181.257859</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07068668710883945</v>
+        <v>0.06870894026851425</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0437833826263833</v>
+        <v>0.04518122042884903</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4288494914.079294</v>
+        <v>4199016076.375496</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1171382217463278</v>
+        <v>0.1420989588884144</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03148715569527941</v>
+        <v>0.03165990990162384</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5039590882.036062</v>
+        <v>4145904385.33916</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1366627607282411</v>
+        <v>0.1060971944944876</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03088822976393556</v>
+        <v>0.03150281743495697</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5438608941.68686</v>
+        <v>5430821307.293669</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1377639355926196</v>
+        <v>0.1352721716053154</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04878877539498252</v>
+        <v>0.03317979415159813</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2790120474.263693</v>
+        <v>2893690597.938561</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08819426778206201</v>
+        <v>0.08134038458240346</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04702507815531799</v>
+        <v>0.03146491832439947</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3709446934.110153</v>
+        <v>5883349476.366772</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1391908350347852</v>
+        <v>0.1151917240591367</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05108906907444935</v>
+        <v>0.04922158379977157</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1784584597.550323</v>
+        <v>1573335684.507691</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1279830363893014</v>
+        <v>0.1281281791634226</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05953999883884664</v>
+        <v>0.05019333788113728</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3290363969.864586</v>
+        <v>3436740541.151294</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06827586437036645</v>
+        <v>0.06683643048039684</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04725376884042212</v>
+        <v>0.0335928522782212</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5626565685.515306</v>
+        <v>3547037021.476735</v>
       </c>
       <c r="F71" t="n">
-        <v>0.115494549533892</v>
+        <v>0.1275984400012235</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02401916330470068</v>
+        <v>0.02717211985165025</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1847601072.870902</v>
+        <v>1896329180.267926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09997206739118555</v>
+        <v>0.06839514908715522</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04724962092812615</v>
+        <v>0.04941658059266992</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2837077259.951951</v>
+        <v>2620260205.628469</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07112409386529189</v>
+        <v>0.07965079497631569</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04726899149788547</v>
+        <v>0.0418497718957709</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3956448382.558722</v>
+        <v>2817783359.547969</v>
       </c>
       <c r="F74" t="n">
-        <v>0.164173093103105</v>
+        <v>0.1379385187676381</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02813628880573933</v>
+        <v>0.03040963552378494</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1994120778.77206</v>
+        <v>1774752001.118826</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1118575544371693</v>
+        <v>0.1144357892004473</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03453810617804851</v>
+        <v>0.03129478714865095</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4684366521.146483</v>
+        <v>3780417378.075768</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09499593229315249</v>
+        <v>0.1009796727857633</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02104710821426518</v>
+        <v>0.02614247152415207</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1641865365.115554</v>
+        <v>2064696196.196022</v>
       </c>
       <c r="F77" t="n">
-        <v>0.122864782521569</v>
+        <v>0.1436116283905373</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02642727004497404</v>
+        <v>0.02765019479985911</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3682025730.020882</v>
+        <v>4189513640.545805</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1050308649461732</v>
+        <v>0.1233464098131972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04377196843729154</v>
+        <v>0.04713058509906935</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1401459155.633421</v>
+        <v>1495726893.38361</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1139971329719914</v>
+        <v>0.107396561850152</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03016580717417509</v>
+        <v>0.03976361306140664</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4298362264.024406</v>
+        <v>4094694528.005171</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07868825105804976</v>
+        <v>0.1035804487592201</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03006903077503149</v>
+        <v>0.03436227532723561</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3420993355.798161</v>
+        <v>3575808854.693015</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1338071027758378</v>
+        <v>0.1220045613741886</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03066598021915716</v>
+        <v>0.0215012032868732</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3618955614.315821</v>
+        <v>4731737417.19866</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1778197897775163</v>
+        <v>0.1506088478810815</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01896212456645998</v>
+        <v>0.0189111734806035</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2112765698.050065</v>
+        <v>1989261958.114615</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1472762304156888</v>
+        <v>0.1500630306654858</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03366245024186313</v>
+        <v>0.03260866056799499</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2488568222.478732</v>
+        <v>1958822818.035308</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08743282811332688</v>
+        <v>0.1110080980146697</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05039378269423603</v>
+        <v>0.04527098956976599</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3673227712.471771</v>
+        <v>2326204211.999812</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1377764817414055</v>
+        <v>0.1690114663620679</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03656770645096282</v>
+        <v>0.04107650879139704</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2328823048.264665</v>
+        <v>2802862797.385762</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1681722617833818</v>
+        <v>0.1161297045511533</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01923732531069344</v>
+        <v>0.02197255284016031</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1112082630.831527</v>
+        <v>1221257618.277701</v>
       </c>
       <c r="F87" t="n">
-        <v>0.143292885985195</v>
+        <v>0.1420474258722132</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03121685188748555</v>
+        <v>0.03963393916125423</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3688743338.669172</v>
+        <v>3566269268.789858</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1617661440555003</v>
+        <v>0.1274489779086971</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03726828248183584</v>
+        <v>0.03941510038637607</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3325304271.014621</v>
+        <v>3193673769.438747</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1425455993776243</v>
+        <v>0.1035149138576255</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03314061938884805</v>
+        <v>0.03706148464532666</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1365274223.229841</v>
+        <v>1515623951.163952</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1009255071575351</v>
+        <v>0.1050680272452732</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03538416232548004</v>
+        <v>0.04593836811151616</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2049543474.51509</v>
+        <v>2058025045.045869</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1735223730250444</v>
+        <v>0.143159213564654</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04183403249743472</v>
+        <v>0.06092560216934913</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2314136677.227711</v>
+        <v>2518666677.035738</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09062985271963443</v>
+        <v>0.09467266706141876</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03208915718531115</v>
+        <v>0.04369778318089023</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3415396281.529501</v>
+        <v>3711185581.51491</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1423772903940609</v>
+        <v>0.1024432122979946</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04392502759834517</v>
+        <v>0.04524158002738641</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2264344549.208244</v>
+        <v>1785577211.350376</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1367744903832328</v>
+        <v>0.1259848787502477</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03416259075750226</v>
+        <v>0.03361540304011791</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3039172711.958328</v>
+        <v>2928176432.309175</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1234761611901434</v>
+        <v>0.1326157735681989</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04471071518872988</v>
+        <v>0.04212584918041459</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2033332977.059511</v>
+        <v>1838896916.486038</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1235692392866301</v>
+        <v>0.107981213979979</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03912563143900613</v>
+        <v>0.03821972200897416</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4725069343.040191</v>
+        <v>3650828348.432084</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1404011773813127</v>
+        <v>0.1573232810281891</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02576750287717526</v>
+        <v>0.01892002215310739</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2721540636.502662</v>
+        <v>3549260046.952755</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09572629540194603</v>
+        <v>0.09487981223058405</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02744995323138033</v>
+        <v>0.02017725464006582</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3027589604.47862</v>
+        <v>2445101465.099783</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1170519872037534</v>
+        <v>0.09254725234133827</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02336631261034998</v>
+        <v>0.03117710649709178</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4634377303.402689</v>
+        <v>3278138876.260599</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1399264110382474</v>
+        <v>0.1397362722429605</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01709247283361832</v>
+        <v>0.02449764667396673</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3101388887.995359</v>
+        <v>2395079520.612584</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1488019399300812</v>
+        <v>0.1350285709364102</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05690558042774074</v>
+        <v>0.04483847266912579</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_495.xlsx
+++ b/output/fit_clients/fit_round_495.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1542043606.763028</v>
+        <v>2153480731.983362</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08691305497775088</v>
+        <v>0.09239186556476207</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04259516850050984</v>
+        <v>0.04532648614691331</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2118441743.521307</v>
+        <v>2545041622.332931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1314875049985492</v>
+        <v>0.1501458808715696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04434325309893267</v>
+        <v>0.03674141927293264</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4116628558.546154</v>
+        <v>4586384600.723575</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1421778342493282</v>
+        <v>0.1485756916415386</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02661923714899324</v>
+        <v>0.02970917603929783</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>249</v>
+      </c>
+      <c r="J4" t="n">
+        <v>495</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2965624030.892049</v>
+        <v>3083950375.0257</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1052085774819358</v>
+        <v>0.08314701565092047</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03999683222159129</v>
+        <v>0.03642740763169442</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>210</v>
+      </c>
+      <c r="J5" t="n">
+        <v>494</v>
+      </c>
+      <c r="K5" t="n">
+        <v>24.46718774847939</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2454301432.52681</v>
+        <v>1906740651.886041</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1430188992602597</v>
+        <v>0.1285586486108095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05012585027223057</v>
+        <v>0.04382050802524416</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2758783355.983537</v>
+        <v>1911638527.006103</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09828462862929746</v>
+        <v>0.09589159540109599</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0355352812375033</v>
+        <v>0.04671151939363558</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3005572827.986859</v>
+        <v>2925839024.871562</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1732338569595132</v>
+        <v>0.1510241740882274</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02095527784504744</v>
+        <v>0.02402980048601379</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>142</v>
+      </c>
+      <c r="J8" t="n">
+        <v>494</v>
+      </c>
+      <c r="K8" t="n">
+        <v>25.17422743015237</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1857216406.864154</v>
+        <v>2165047564.810153</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1900970894828291</v>
+        <v>0.190524486274133</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02909716233843924</v>
+        <v>0.03584709025970777</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5951702170.922746</v>
+        <v>5063310872.254579</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1944160741530768</v>
+        <v>0.1824448824593021</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04651403127205009</v>
+        <v>0.03499508288482494</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>373</v>
+      </c>
+      <c r="J10" t="n">
+        <v>495</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3022619625.686199</v>
+        <v>3489048466.222518</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1369367456663154</v>
+        <v>0.1909149872222988</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0376719614476592</v>
+        <v>0.03993790109807324</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>207</v>
+      </c>
+      <c r="J11" t="n">
+        <v>494</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.92422894171958</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2124753716.583473</v>
+        <v>2356903941.325817</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1372463194084861</v>
+        <v>0.1949585477901772</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05382455858738443</v>
+        <v>0.05291106811846549</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4982608231.90546</v>
+        <v>5171793035.740821</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07421322998332749</v>
+        <v>0.08049935920052786</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02775958665571343</v>
+        <v>0.02686357494435536</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>255</v>
+      </c>
+      <c r="J13" t="n">
+        <v>495</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3702851738.714928</v>
+        <v>2857337346.067337</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1790473384586783</v>
+        <v>0.1186193424456474</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03478869713763893</v>
+        <v>0.03224818861660655</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>116</v>
+      </c>
+      <c r="J14" t="n">
+        <v>490</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1576951053.004454</v>
+        <v>1793919588.320574</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1064375170012176</v>
+        <v>0.1052158179335509</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03642270323427008</v>
+        <v>0.03327670161599747</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1840071512.739509</v>
+        <v>1941120402.922112</v>
       </c>
       <c r="F16" t="n">
-        <v>0.104027497386758</v>
+        <v>0.07409532723075042</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04482578857172564</v>
+        <v>0.04739343227201993</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4367590673.017049</v>
+        <v>4619498890.064715</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1567751520462358</v>
+        <v>0.1525237615387658</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04928355484158997</v>
+        <v>0.03352028702384671</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>241</v>
+      </c>
+      <c r="J17" t="n">
+        <v>495</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3442346210.331971</v>
+        <v>2455182262.797498</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1583259343383136</v>
+        <v>0.1439186805747476</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02280298337689408</v>
+        <v>0.0335114879632533</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>132</v>
+      </c>
+      <c r="J18" t="n">
+        <v>493</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1178054098.876896</v>
+        <v>1292172232.125693</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1262185552794938</v>
+        <v>0.1161474169016822</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01664240065780937</v>
+        <v>0.02126001285416822</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2286983046.711246</v>
+        <v>2336418245.673121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1102747021812146</v>
+        <v>0.1046398225120312</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02435630004794391</v>
+        <v>0.02960105765333956</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1833320977.756066</v>
+        <v>1948743736.23013</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08141554588308825</v>
+        <v>0.08892897170858105</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04533496088455626</v>
+        <v>0.03955399717108536</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2751782953.786939</v>
+        <v>2928269089.965973</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1133993908155975</v>
+        <v>0.1226329605280131</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05281299432722526</v>
+        <v>0.04282724941271001</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>146</v>
+      </c>
+      <c r="J22" t="n">
+        <v>493</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1234070729.589547</v>
+        <v>1164468057.923648</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1519165695453046</v>
+        <v>0.1654662126679849</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05461180489712595</v>
+        <v>0.04100054501532087</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3080302104.363536</v>
+        <v>3169693034.12276</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09723413237333359</v>
+        <v>0.0967475908307624</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03422946390554686</v>
+        <v>0.03527701149276124</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>156</v>
+      </c>
+      <c r="J24" t="n">
+        <v>493</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1172165072.669854</v>
+        <v>1295749925.793711</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1144250621730645</v>
+        <v>0.1087527156468465</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02294466727950694</v>
+        <v>0.02368937551762081</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>925213717.1914921</v>
+        <v>1360490243.032111</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1088359660635458</v>
+        <v>0.08535962304501231</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03650172679094803</v>
+        <v>0.03511675817976159</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2871351256.889565</v>
+        <v>3085092665.939332</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1160057169728253</v>
+        <v>0.1031721574545762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02411193006629987</v>
+        <v>0.02626101863266281</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>221</v>
+      </c>
+      <c r="J27" t="n">
+        <v>494</v>
+      </c>
+      <c r="K27" t="n">
+        <v>22.46511184958119</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1419,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2522327825.795138</v>
+        <v>2673652059.813665</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1145175816686133</v>
+        <v>0.1276529038642104</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0423067970835642</v>
+        <v>0.04545997497744347</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>122</v>
+      </c>
+      <c r="J28" t="n">
+        <v>491</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1448,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4361163652.675226</v>
+        <v>3907127824.987286</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09900351689248321</v>
+        <v>0.1487644053099185</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03644461374826462</v>
+        <v>0.036918338778857</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>388</v>
+      </c>
+      <c r="J29" t="n">
+        <v>495</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1489,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2226557566.903035</v>
+        <v>1840678908.41497</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1115358581876746</v>
+        <v>0.1195232368438717</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03979725852030268</v>
+        <v>0.02711144334139931</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1479112224.762859</v>
+        <v>957693549.6632211</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09468630747832478</v>
+        <v>0.09865597996909913</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04559338703330265</v>
+        <v>0.0489684927320243</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1625500771.75043</v>
+        <v>1434685982.315321</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08042942310930996</v>
+        <v>0.1199143143402764</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03063679184121253</v>
+        <v>0.0355242779982526</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2055730346.56514</v>
+        <v>2383695122.409201</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2080645635752057</v>
+        <v>0.173654351140132</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04099208241181748</v>
+        <v>0.05278227539504721</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1629,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1469742302.269227</v>
+        <v>1111220202.281362</v>
       </c>
       <c r="F34" t="n">
-        <v>0.107979497278071</v>
+        <v>0.08930613669645764</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02542052161599924</v>
+        <v>0.02424899490886623</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1664,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1069780201.671392</v>
+        <v>920243727.5319345</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1084904839341741</v>
+        <v>0.07737332987438336</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03324240991845751</v>
+        <v>0.03785259774406739</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2884034729.564976</v>
+        <v>2133392558.389382</v>
       </c>
       <c r="F36" t="n">
-        <v>0.15736374366362</v>
+        <v>0.1332231460229968</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02239992622696247</v>
+        <v>0.01993305008275494</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2253070428.040962</v>
+        <v>2343533609.185228</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06850263139155306</v>
+        <v>0.1007297503696723</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03541481537475698</v>
+        <v>0.03228169066118137</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1628911388.556081</v>
+        <v>1810717077.338891</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1137369251578772</v>
+        <v>0.08165562067648584</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03550985051346197</v>
+        <v>0.02474530625541197</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1989775314.448007</v>
+        <v>2177078248.952518</v>
       </c>
       <c r="F39" t="n">
-        <v>0.153944230873414</v>
+        <v>0.1309803981672275</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02817847076944229</v>
+        <v>0.03020233506354222</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1100646358.813126</v>
+        <v>1221041189.992575</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1403848154161137</v>
+        <v>0.1449345250557443</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04389475081682771</v>
+        <v>0.04726557691998418</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1998501571.324479</v>
+        <v>2698601453.114641</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1018554223622221</v>
+        <v>0.1400880770779155</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04085997352728815</v>
+        <v>0.03225639549073594</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1909,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3511930735.259176</v>
+        <v>2749693770.283978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08307695444994855</v>
+        <v>0.1089755496120628</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03426722571480028</v>
+        <v>0.03048334208686637</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>210</v>
+      </c>
+      <c r="J42" t="n">
+        <v>487</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1951346407.945301</v>
+        <v>2251240834.698276</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1248997774152531</v>
+        <v>0.1268879132876617</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02264717301501858</v>
+        <v>0.02444749357957608</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2033576958.615717</v>
+        <v>1961120155.30216</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06552829710263881</v>
+        <v>0.09705513136317154</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02533808173890488</v>
+        <v>0.03290509295436991</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2008,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2032833618.314464</v>
+        <v>1654285538.559723</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1778106360778654</v>
+        <v>0.1914372067497941</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04839139191100247</v>
+        <v>0.03481831549078334</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2043,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4076355320.586821</v>
+        <v>4402439845.749041</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1246334127716951</v>
+        <v>0.1771464194553742</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04098794590128187</v>
+        <v>0.04133401655012587</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>290</v>
+      </c>
+      <c r="J46" t="n">
+        <v>495</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,16 +2084,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3688304585.950544</v>
+        <v>3246279567.153221</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1853979240434641</v>
+        <v>0.1736229419299569</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05229049533003223</v>
+        <v>0.05570702012588397</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>225</v>
+      </c>
+      <c r="J47" t="n">
+        <v>494</v>
+      </c>
+      <c r="K47" t="n">
+        <v>22.77224760657208</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3959547642.702285</v>
+        <v>2929590482.453429</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06645650256107491</v>
+        <v>0.09023818976233033</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03781756070299859</v>
+        <v>0.03832835760806483</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>248</v>
+      </c>
+      <c r="J48" t="n">
+        <v>494</v>
+      </c>
+      <c r="K48" t="n">
+        <v>20.64473434585945</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1626951562.905364</v>
+        <v>1985026582.541131</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1805698835298321</v>
+        <v>0.1717323697222567</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03157214547828609</v>
+        <v>0.04297063586237684</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3268349027.00213</v>
+        <v>4175202568.51101</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1242665341805756</v>
+        <v>0.1580112249800693</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03342176516628356</v>
+        <v>0.05317030353641119</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>179</v>
+      </c>
+      <c r="J50" t="n">
+        <v>494</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33.61976330664405</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1218397440.643993</v>
+        <v>1493595752.95625</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1251807619854659</v>
+        <v>0.167486463697111</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04152699153210296</v>
+        <v>0.04783390574159418</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2265,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5302353685.76004</v>
+        <v>3550699221.985723</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09202204551640496</v>
+        <v>0.1315928091173462</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04931698934547308</v>
+        <v>0.04468320208131348</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>275</v>
+      </c>
+      <c r="J52" t="n">
+        <v>495</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,16 +2300,25 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2415237853.607495</v>
+        <v>3512425196.226077</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1987121036925598</v>
+        <v>0.1404098711898402</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03511639382023498</v>
+        <v>0.02935310857704468</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>78</v>
+      </c>
+      <c r="J53" t="n">
+        <v>495</v>
+      </c>
+      <c r="K53" t="n">
+        <v>51.28655366935428</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4299824685.789639</v>
+        <v>4447851773.969828</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1099273530514423</v>
+        <v>0.1402888527440148</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04717050827903278</v>
+        <v>0.0363669309996144</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>260</v>
+      </c>
+      <c r="J54" t="n">
+        <v>495</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3609512129.03524</v>
+        <v>4565580513.850508</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1593927273572834</v>
+        <v>0.1419845543630431</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03111944576805847</v>
+        <v>0.0246707230856202</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>244</v>
+      </c>
+      <c r="J55" t="n">
+        <v>495</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1537253675.654204</v>
+        <v>1870001235.619889</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1083699967193964</v>
+        <v>0.158246412228695</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04867600226160111</v>
+        <v>0.04271814564804084</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3877374976.710955</v>
+        <v>3291955222.78329</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1656990784929531</v>
+        <v>0.1372296142163267</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0263541723637696</v>
+        <v>0.01778004827029651</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>212</v>
+      </c>
+      <c r="J57" t="n">
+        <v>490</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2471,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1234905194.877186</v>
+        <v>1149960547.609551</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1931185228919123</v>
+        <v>0.1377481741842185</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02830663312866903</v>
+        <v>0.03069023891562943</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2506,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4639772445.804938</v>
+        <v>4578779558.055617</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1228333820466094</v>
+        <v>0.1286833777904755</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04361523446045926</v>
+        <v>0.03027490315059978</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>243</v>
+      </c>
+      <c r="J59" t="n">
+        <v>494</v>
+      </c>
+      <c r="K59" t="n">
+        <v>24.6688831488126</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2923492167.640656</v>
+        <v>2319492856.918721</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1874142293677726</v>
+        <v>0.2066645151779357</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03314755083076849</v>
+        <v>0.02083846950518234</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>101</v>
+      </c>
+      <c r="J60" t="n">
+        <v>491</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2990889245.512687</v>
+        <v>2170154793.821592</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1278023368666182</v>
+        <v>0.1639415883682225</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02776770915105524</v>
+        <v>0.02418057658261152</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2619,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1667952664.592275</v>
+        <v>1887010855.174918</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1459052061890579</v>
+        <v>0.1796674449503527</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03256544037669383</v>
+        <v>0.0443755145876061</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2654,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4947190181.257859</v>
+        <v>3631864117.454048</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06870894026851425</v>
+        <v>0.0837520905624443</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04518122042884903</v>
+        <v>0.03891280169248133</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>247</v>
+      </c>
+      <c r="J63" t="n">
+        <v>494</v>
+      </c>
+      <c r="K63" t="n">
+        <v>27.91465459029797</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4199016076.375496</v>
+        <v>3921640319.331157</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1420989588884144</v>
+        <v>0.1690769690511937</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03165990990162384</v>
+        <v>0.02986146403524112</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>246</v>
+      </c>
+      <c r="J64" t="n">
+        <v>495</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2720,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4145904385.33916</v>
+        <v>4291175298.400419</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1060971944944876</v>
+        <v>0.1500011700320266</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03150281743495697</v>
+        <v>0.02594779474103746</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>345</v>
+      </c>
+      <c r="J65" t="n">
+        <v>495</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2755,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5430821307.293669</v>
+        <v>3512003814.576529</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1352721716053154</v>
+        <v>0.1519458718729808</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03317979415159813</v>
+        <v>0.04221603668190629</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>245</v>
+      </c>
+      <c r="J66" t="n">
+        <v>493</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,16 +2796,25 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2893690597.938561</v>
+        <v>2616123384.50492</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08134038458240346</v>
+        <v>0.1018275589726167</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03146491832439947</v>
+        <v>0.03261680202586597</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>16</v>
+      </c>
+      <c r="J67" t="n">
+        <v>495</v>
+      </c>
+      <c r="K67" t="n">
+        <v>42.52441294317742</v>
       </c>
     </row>
     <row r="68">
@@ -2328,23 +2827,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5883349476.366772</v>
+        <v>5635975303.989284</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1151917240591367</v>
+        <v>0.1051436519664947</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04922158379977157</v>
+        <v>0.03580860602745121</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>268</v>
+      </c>
+      <c r="J68" t="n">
+        <v>495</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1573335684.507691</v>
+        <v>2318427729.572928</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1281281791634226</v>
+        <v>0.148204514061051</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05019333788113728</v>
+        <v>0.04300542725577646</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2897,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3436740541.151294</v>
+        <v>2922353449.71585</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06683643048039684</v>
+        <v>0.0762581270050532</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0335928522782212</v>
+        <v>0.04538021158037693</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>77</v>
+      </c>
+      <c r="J70" t="n">
+        <v>493</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2932,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3547037021.476735</v>
+        <v>4649055621.039162</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1275984400012235</v>
+        <v>0.1667106540245893</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02717211985165025</v>
+        <v>0.02364382327212909</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>332</v>
+      </c>
+      <c r="J71" t="n">
+        <v>494</v>
+      </c>
+      <c r="K71" t="n">
+        <v>26.77387169536563</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2975,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1896329180.267926</v>
+        <v>2099984743.348432</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06839514908715522</v>
+        <v>0.08811529521704031</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04941658059266992</v>
+        <v>0.03921317428995628</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3004,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2620260205.628469</v>
+        <v>2820637771.927184</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07965079497631569</v>
+        <v>0.09621556606651796</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0418497718957709</v>
+        <v>0.04984896904796244</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>48</v>
+      </c>
+      <c r="J73" t="n">
+        <v>491</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3039,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2817783359.547969</v>
+        <v>3998600998.029883</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1379385187676381</v>
+        <v>0.1478305286821184</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03040963552378494</v>
+        <v>0.03459503902925008</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>145</v>
+      </c>
+      <c r="J74" t="n">
+        <v>495</v>
+      </c>
+      <c r="K74" t="n">
+        <v>41.71816852646662</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3076,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1774752001.118826</v>
+        <v>2201590014.289283</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1144357892004473</v>
+        <v>0.1233452730690001</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03129478714865095</v>
+        <v>0.03108898755047288</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3117,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3780417378.075768</v>
+        <v>4891436452.052984</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1009796727857633</v>
+        <v>0.1211289010525324</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02614247152415207</v>
+        <v>0.02511831917467198</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>237</v>
+      </c>
+      <c r="J76" t="n">
+        <v>495</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3146,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2064696196.196022</v>
+        <v>2279142186.70411</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1436116283905373</v>
+        <v>0.139543369605423</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02765019479985911</v>
+        <v>0.02643191385830508</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3181,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4189513640.545805</v>
+        <v>4595803204.562055</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1233464098131972</v>
+        <v>0.132093868060575</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04713058509906935</v>
+        <v>0.04845263629517464</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>244</v>
+      </c>
+      <c r="J78" t="n">
+        <v>495</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3216,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1495726893.38361</v>
+        <v>1658850723.657659</v>
       </c>
       <c r="F79" t="n">
-        <v>0.107396561850152</v>
+        <v>0.1343259223050759</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03976361306140664</v>
+        <v>0.03857870404229474</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3251,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4094694528.005171</v>
+        <v>4355768974.08659</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1035804487592201</v>
+        <v>0.07721690602587382</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03436227532723561</v>
+        <v>0.02518973207443114</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>242</v>
+      </c>
+      <c r="J80" t="n">
+        <v>494</v>
+      </c>
+      <c r="K80" t="n">
+        <v>25.76484693628612</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3575808854.693015</v>
+        <v>3874707022.095892</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1220045613741886</v>
+        <v>0.09594094835117274</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0215012032868732</v>
+        <v>0.03173057749873043</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>232</v>
+      </c>
+      <c r="J81" t="n">
+        <v>494</v>
+      </c>
+      <c r="K81" t="n">
+        <v>25.63866130262398</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3331,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4731737417.19866</v>
+        <v>4623952341.993778</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1506088478810815</v>
+        <v>0.1369886729427498</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0189111734806035</v>
+        <v>0.02723082128165375</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>324</v>
+      </c>
+      <c r="J82" t="n">
+        <v>494</v>
+      </c>
+      <c r="K82" t="n">
+        <v>25.99632607024203</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1989261958.114615</v>
+        <v>2297237936.375739</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1500630306654858</v>
+        <v>0.1128171182848421</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03260866056799499</v>
+        <v>0.03412758822150275</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1958822818.035308</v>
+        <v>1980576030.027355</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1110080980146697</v>
+        <v>0.07999162820386624</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04527098956976599</v>
+        <v>0.04528441083732815</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3432,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2326204211.999812</v>
+        <v>3147725174.519653</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1690114663620679</v>
+        <v>0.179300198295853</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04107650879139704</v>
+        <v>0.04896080661760573</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>74</v>
+      </c>
+      <c r="J85" t="n">
+        <v>485</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2802862797.385762</v>
+        <v>2740022774.671625</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1161297045511533</v>
+        <v>0.1117954275736676</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02197255284016031</v>
+        <v>0.02566053429663825</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1221257618.277701</v>
+        <v>961086529.8014449</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1420474258722132</v>
+        <v>0.1359352414682296</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03963393916125423</v>
+        <v>0.0301988402985301</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3537,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3566269268.789858</v>
+        <v>2698110870.340743</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1274489779086971</v>
+        <v>0.143164500202836</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03941510038637607</v>
+        <v>0.03966338750697172</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>71</v>
+      </c>
+      <c r="J88" t="n">
+        <v>485</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,16 +3578,25 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3193673769.438747</v>
+        <v>2595406471.566092</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1035149138576255</v>
+        <v>0.1149134182541712</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03706148464532666</v>
+        <v>0.02603681739979016</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>33</v>
+      </c>
+      <c r="J89" t="n">
+        <v>495</v>
+      </c>
+      <c r="K89" t="n">
+        <v>37.43850245570751</v>
       </c>
     </row>
     <row r="90">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1515623951.163952</v>
+        <v>1489838052.563054</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1050680272452732</v>
+        <v>0.1168575710469753</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04593836811151616</v>
+        <v>0.0563819683376657</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2058025045.045869</v>
+        <v>1682204450.142439</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143159213564654</v>
+        <v>0.1551540809596247</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06092560216934913</v>
+        <v>0.05878570403804655</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2518666677.035738</v>
+        <v>2632585979.359867</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09467266706141876</v>
+        <v>0.07922342092643932</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04369778318089023</v>
+        <v>0.03821064972709812</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3711185581.51491</v>
+        <v>3260821806.509286</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1024432122979946</v>
+        <v>0.1169427743314816</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04524158002738641</v>
+        <v>0.0406869201541419</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>238</v>
+      </c>
+      <c r="J93" t="n">
+        <v>494</v>
+      </c>
+      <c r="K93" t="n">
+        <v>23.32846181123477</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1785577211.350376</v>
+        <v>1716388283.824755</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1259848787502477</v>
+        <v>0.1216735897149185</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03361540304011791</v>
+        <v>0.04054653268030216</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2928176432.309175</v>
+        <v>2198174044.343272</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1326157735681989</v>
+        <v>0.1121882855496053</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04212584918041459</v>
+        <v>0.03188480820449712</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1838896916.486038</v>
+        <v>2235840361.290576</v>
       </c>
       <c r="F96" t="n">
-        <v>0.107981213979979</v>
+        <v>0.09676963116050431</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03821972200897416</v>
+        <v>0.03962825628170725</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3650828348.432084</v>
+        <v>4989703263.767331</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1573232810281891</v>
+        <v>0.1374931858576183</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01892002215310739</v>
+        <v>0.02882986887604042</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>257</v>
+      </c>
+      <c r="J97" t="n">
+        <v>495</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3549260046.952755</v>
+        <v>3720880390.193835</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09487981223058405</v>
+        <v>0.07912536365508005</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02017725464006582</v>
+        <v>0.02948975922223305</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>128</v>
+      </c>
+      <c r="J98" t="n">
+        <v>495</v>
+      </c>
+      <c r="K98" t="n">
+        <v>42.34813792858368</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2445101465.099783</v>
+        <v>3056085192.931763</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09254725234133827</v>
+        <v>0.09986577512224326</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03117710649709178</v>
+        <v>0.02716494481273634</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3278138876.260599</v>
+        <v>4403028882.688251</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1397362722429605</v>
+        <v>0.1132992596264329</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02449764667396673</v>
+        <v>0.01830747368956505</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>231</v>
+      </c>
+      <c r="J100" t="n">
+        <v>494</v>
+      </c>
+      <c r="K100" t="n">
+        <v>29.00931149009765</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2395079520.612584</v>
+        <v>2352950332.932256</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1350285709364102</v>
+        <v>0.1360756405894231</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04483847266912579</v>
+        <v>0.04190134034233771</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
